--- a/dcomtestcasegeneration/Database/Database_template.xlsx
+++ b/dcomtestcasegeneration/Database/Database_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DF3CF5-B9A6-4A34-BE09-BBD3408B6DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB8225A-8655-4494-B5F5-6DFB8F1283E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" tabRatio="903" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26610" yWindow="1425" windowWidth="25125" windowHeight="13185" tabRatio="903" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="208">
   <si>
     <t>7F</t>
   </si>
@@ -661,6 +661,15 @@
   </si>
   <si>
     <t>// Stop DTC Setting</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>SID Support</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -810,7 +819,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -902,6 +911,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,11 +1195,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1">
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1544,11 +1558,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:U111"/>
+  <sheetPr codeName="Sheet11">
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1565,19 +1581,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
@@ -1600,12 +1616,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="32"/>
+      <c r="T1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -1639,19 +1656,22 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1682,21 +1702,22 @@
         <v>86</v>
       </c>
       <c r="O3" s="14"/>
-      <c r="P3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q3" s="7"/>
-      <c r="S3" s="9" t="s">
+      <c r="P3" s="14"/>
+      <c r="Q3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="R3" s="7"/>
+      <c r="T3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="E4" s="2"/>
@@ -1723,21 +1744,22 @@
         <v>37</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q4" s="7"/>
-      <c r="S4" s="9" t="s">
+      <c r="P4" s="14"/>
+      <c r="Q4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="T4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="E5" s="2"/>
@@ -1754,12 +1776,13 @@
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="14"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="7"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
@@ -1774,12 +1797,13 @@
       <c r="L6" s="7"/>
       <c r="N6" s="9"/>
       <c r="O6" s="14"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="7"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
@@ -1794,12 +1818,13 @@
       <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="E8" s="2"/>
@@ -1814,12 +1839,13 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="E9" s="3"/>
@@ -1834,12 +1860,13 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="E10" s="2"/>
@@ -1854,12 +1881,13 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="E11" s="2"/>
@@ -1874,12 +1902,13 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="E12" s="2"/>
@@ -1894,12 +1923,13 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="E13" s="2"/>
@@ -1914,12 +1944,13 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="E14" s="2"/>
@@ -1934,12 +1965,13 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="E15" s="2"/>
@@ -1954,12 +1986,13 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="E16" s="2"/>
@@ -1974,12 +2007,13 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="E17" s="4"/>
@@ -1994,27 +2028,27 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2023,11 +2057,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:U111"/>
+  <sheetPr codeName="Sheet12">
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2044,19 +2080,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
@@ -2079,12 +2115,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="32"/>
+      <c r="T1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -2118,19 +2155,22 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -2166,23 +2206,24 @@
       <c r="O3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -2218,23 +2259,24 @@
       <c r="O4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="P4" s="14"/>
       <c r="Q4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="E5" s="2"/>
@@ -2255,16 +2297,17 @@
       <c r="O5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
@@ -2282,19 +2325,18 @@
       <c r="N6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="O6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
@@ -2311,12 +2353,13 @@
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="E8" s="2"/>
@@ -2331,12 +2374,13 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="E9" s="3"/>
@@ -2351,12 +2395,13 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="E10" s="2"/>
@@ -2371,12 +2416,13 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="E11" s="2"/>
@@ -2391,12 +2437,13 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="E12" s="2"/>
@@ -2411,12 +2458,13 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="E13" s="2"/>
@@ -2431,12 +2479,13 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="E14" s="2"/>
@@ -2451,12 +2500,13 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="E15" s="2"/>
@@ -2471,12 +2521,13 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="E16" s="2"/>
@@ -2491,12 +2542,13 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="E17" s="4"/>
@@ -2511,27 +2563,27 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2540,11 +2592,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:U111"/>
+  <sheetPr codeName="Sheet13">
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2561,19 +2615,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
@@ -2596,12 +2650,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -2635,19 +2690,22 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -2683,23 +2741,24 @@
       <c r="O3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -2735,23 +2794,24 @@
       <c r="O4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="P4" s="14"/>
       <c r="Q4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="E5" s="2"/>
@@ -2772,16 +2832,17 @@
       <c r="O5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
@@ -2802,16 +2863,17 @@
       <c r="O6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
@@ -2828,12 +2890,13 @@
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="E8" s="2"/>
@@ -2848,12 +2911,13 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="E9" s="3"/>
@@ -2868,12 +2932,13 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="E10" s="2"/>
@@ -2888,12 +2953,13 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="E11" s="2"/>
@@ -2908,12 +2974,13 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="E12" s="2"/>
@@ -2928,12 +2995,13 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="E13" s="2"/>
@@ -2948,12 +3016,13 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="E14" s="2"/>
@@ -2968,12 +3037,13 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="E15" s="2"/>
@@ -2988,12 +3058,13 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="E16" s="2"/>
@@ -3008,12 +3079,13 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="E17" s="4"/>
@@ -3028,27 +3100,27 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3057,11 +3129,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:U111"/>
+  <sheetPr codeName="Sheet9">
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3078,19 +3152,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
@@ -3113,12 +3187,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -3152,19 +3227,22 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -3200,23 +3278,24 @@
       <c r="O3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -3252,23 +3331,24 @@
       <c r="O4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="P4" s="14"/>
       <c r="Q4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="E5" s="2"/>
@@ -3289,16 +3369,17 @@
       <c r="O5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
@@ -3316,19 +3397,18 @@
       <c r="N6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="O6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
@@ -3345,12 +3425,13 @@
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="E8" s="2"/>
@@ -3365,12 +3446,13 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="E9" s="3"/>
@@ -3385,12 +3467,13 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="E10" s="2"/>
@@ -3405,12 +3488,13 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="E11" s="2"/>
@@ -3425,12 +3509,13 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="E12" s="2"/>
@@ -3445,12 +3530,13 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="E13" s="2"/>
@@ -3465,12 +3551,13 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="E14" s="2"/>
@@ -3485,12 +3572,13 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="E15" s="2"/>
@@ -3505,12 +3593,13 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="E16" s="2"/>
@@ -3525,12 +3614,13 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="E17" s="4"/>
@@ -3545,12 +3635,13 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3563,8 +3654,8 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3573,11 +3664,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:U17"/>
+  <sheetPr codeName="Sheet2">
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3594,19 +3687,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
@@ -3629,12 +3722,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -3668,19 +3762,22 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -3713,23 +3810,24 @@
       <c r="O3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -3762,23 +3860,24 @@
       <c r="O4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="P4" s="14"/>
       <c r="Q4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -3811,16 +3910,17 @@
       <c r="O5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
@@ -3846,19 +3946,18 @@
       <c r="N6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="O6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
@@ -3883,12 +3982,13 @@
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="E8" s="2"/>
@@ -3905,12 +4005,13 @@
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="E9" s="3"/>
@@ -3927,12 +4028,13 @@
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="E10" s="2"/>
@@ -3949,12 +4051,13 @@
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="E11" s="2"/>
@@ -3971,12 +4074,13 @@
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="E12" s="2"/>
@@ -3993,12 +4097,13 @@
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="E13" s="2"/>
@@ -4015,12 +4120,13 @@
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="E14" s="2"/>
@@ -4037,12 +4143,13 @@
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="E15" s="2"/>
@@ -4059,12 +4166,13 @@
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="E16" s="2"/>
@@ -4079,12 +4187,13 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="E17" s="4"/>
@@ -4099,18 +4208,19 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N1:R1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4120,11 +4230,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:U111"/>
+  <sheetPr codeName="Sheet3">
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4141,19 +4253,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
@@ -4176,12 +4288,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -4215,19 +4328,22 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -4260,23 +4376,24 @@
       <c r="O3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -4309,23 +4426,24 @@
       <c r="O4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="P4" s="14"/>
       <c r="Q4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -4350,16 +4468,17 @@
       <c r="O5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="7"/>
       <c r="E6" s="2"/>
@@ -4377,19 +4496,18 @@
       <c r="N6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="O6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="E7" s="2"/>
@@ -4404,12 +4522,13 @@
       <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="E8" s="2"/>
@@ -4424,12 +4543,13 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="E9" s="3"/>
@@ -4444,12 +4564,13 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="E10" s="2"/>
@@ -4464,12 +4585,13 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="E11" s="2"/>
@@ -4484,12 +4606,13 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="E12" s="2"/>
@@ -4504,12 +4627,13 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="E13" s="2"/>
@@ -4524,12 +4648,13 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="E14" s="2"/>
@@ -4544,12 +4669,13 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="E15" s="2"/>
@@ -4564,12 +4690,13 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="E16" s="2"/>
@@ -4584,12 +4711,13 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="7"/>
       <c r="E17" s="4"/>
@@ -4604,27 +4732,27 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4633,11 +4761,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:U111"/>
+  <sheetPr codeName="Sheet4">
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4654,19 +4784,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
@@ -4689,12 +4819,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -4728,19 +4859,22 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>41</v>
       </c>
@@ -4771,21 +4905,22 @@
         <v>86</v>
       </c>
       <c r="O3" s="14"/>
-      <c r="P3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q3" s="7"/>
-      <c r="S3" s="9" t="s">
+      <c r="P3" s="14"/>
+      <c r="Q3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="R3" s="7"/>
+      <c r="T3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="E4" s="2"/>
@@ -4812,21 +4947,22 @@
         <v>37</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q4" s="7"/>
-      <c r="S4" s="9" t="s">
+      <c r="P4" s="14"/>
+      <c r="Q4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="T4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="E5" s="2"/>
@@ -4843,12 +4979,13 @@
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="14"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="7"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
@@ -4863,12 +5000,13 @@
       <c r="L6" s="7"/>
       <c r="N6" s="9"/>
       <c r="O6" s="14"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="7"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
@@ -4883,12 +5021,13 @@
       <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="E8" s="2"/>
@@ -4903,12 +5042,13 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="E9" s="3"/>
@@ -4923,12 +5063,13 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="E10" s="2"/>
@@ -4943,12 +5084,13 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="E11" s="2"/>
@@ -4963,12 +5105,13 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="E12" s="2"/>
@@ -4983,12 +5126,13 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="E13" s="2"/>
@@ -5003,12 +5147,13 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="E14" s="2"/>
@@ -5023,12 +5168,13 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="E15" s="2"/>
@@ -5043,12 +5189,13 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="E16" s="2"/>
@@ -5063,12 +5210,13 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="E17" s="4"/>
@@ -5083,30 +5231,27 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5115,11 +5260,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:U111"/>
+  <sheetPr codeName="Sheet5">
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5134,19 +5281,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>21</v>
       </c>
@@ -5171,12 +5318,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -5212,19 +5360,22 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -5257,21 +5408,22 @@
         <v>86</v>
       </c>
       <c r="O3" s="14"/>
-      <c r="P3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q3" s="7"/>
-      <c r="S3" s="9" t="s">
+      <c r="P3" s="14"/>
+      <c r="Q3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="R3" s="7"/>
+      <c r="T3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -5304,21 +5456,22 @@
         <v>37</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q4" s="7"/>
-      <c r="S4" s="9" t="s">
+      <c r="P4" s="14"/>
+      <c r="Q4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="T4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>26</v>
       </c>
@@ -5341,12 +5494,13 @@
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="14"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R5" s="7"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
@@ -5369,12 +5523,13 @@
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="14"/>
-      <c r="P6" s="7"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R6" s="7"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
@@ -5395,12 +5550,13 @@
       <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -5416,12 +5572,13 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -5438,12 +5595,13 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -5460,12 +5618,13 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -5482,12 +5641,13 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -5504,12 +5664,13 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -5526,12 +5687,13 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -5548,12 +5710,13 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -5570,12 +5733,13 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -5592,12 +5756,13 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -5614,47 +5779,26 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5664,11 +5808,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:V37"/>
+  <sheetPr codeName="Sheet6">
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:AD37"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="J1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5684,19 +5830,20 @@
     <col min="12" max="12" width="14.42578125" style="6" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" style="6" customWidth="1"/>
     <col min="14" max="14" width="6.28515625" style="6" customWidth="1"/>
-    <col min="15" max="16" width="18.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
-    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="6"/>
+    <col min="15" max="17" width="18.7109375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="6" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" style="6" customWidth="1"/>
+    <col min="23" max="24" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="4.85546875" style="6" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" style="6" customWidth="1"/>
+    <col min="29" max="29" width="17" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>21</v>
       </c>
@@ -5722,12 +5869,17 @@
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
-      <c r="T1" s="28" t="s">
+      <c r="S1" s="29"/>
+      <c r="U1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="29"/>
-    </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V1" s="29"/>
+      <c r="AC1" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD1" s="29"/>
+    </row>
+    <row r="2" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>97</v>
       </c>
@@ -5770,19 +5922,28 @@
         <v>93</v>
       </c>
       <c r="Q2" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>98</v>
       </c>
@@ -5822,21 +5983,28 @@
         <v>86</v>
       </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="R3" s="7"/>
-      <c r="T3" s="9" t="s">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="S3" s="7"/>
+      <c r="U3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC3" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>99</v>
       </c>
@@ -5876,21 +6044,28 @@
         <v>37</v>
       </c>
       <c r="P4" s="14"/>
-      <c r="Q4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="R4" s="7"/>
-      <c r="T4" s="9" t="s">
+      <c r="Q4" s="14"/>
+      <c r="R4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="U4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="W4" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>100</v>
       </c>
@@ -5928,12 +6103,15 @@
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="14"/>
       <c r="R5" s="7"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="7"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="7"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="7"/>
+    </row>
+    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>101</v>
       </c>
@@ -5971,12 +6149,13 @@
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="7"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="7"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>102</v>
       </c>
@@ -6012,12 +6191,13 @@
       <c r="M7" s="7"/>
       <c r="O7" s="9"/>
       <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
+      <c r="Q7" s="14"/>
       <c r="R7" s="7"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="7"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="7"/>
+    </row>
+    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>103</v>
       </c>
@@ -6053,12 +6233,13 @@
       <c r="M8" s="7"/>
       <c r="O8" s="9"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="14"/>
       <c r="R8" s="7"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="7"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>104</v>
       </c>
@@ -6094,12 +6275,13 @@
       <c r="M9" s="7"/>
       <c r="O9" s="9"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="14"/>
       <c r="R9" s="7"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="7"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>105</v>
       </c>
@@ -6135,12 +6317,13 @@
       <c r="M10" s="7"/>
       <c r="O10" s="9"/>
       <c r="P10" s="14"/>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="14"/>
       <c r="R10" s="7"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="7"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>106</v>
       </c>
@@ -6176,12 +6359,13 @@
       <c r="M11" s="7"/>
       <c r="O11" s="9"/>
       <c r="P11" s="14"/>
-      <c r="Q11" s="7"/>
+      <c r="Q11" s="14"/>
       <c r="R11" s="7"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="7"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>107</v>
       </c>
@@ -6215,12 +6399,13 @@
       <c r="M12" s="7"/>
       <c r="O12" s="9"/>
       <c r="P12" s="14"/>
-      <c r="Q12" s="7"/>
+      <c r="Q12" s="14"/>
       <c r="R12" s="7"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="7"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>108</v>
       </c>
@@ -6254,12 +6439,13 @@
       <c r="M13" s="7"/>
       <c r="O13" s="9"/>
       <c r="P13" s="14"/>
-      <c r="Q13" s="7"/>
+      <c r="Q13" s="14"/>
       <c r="R13" s="7"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="7"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="7"/>
+    </row>
+    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>109</v>
       </c>
@@ -6293,12 +6479,13 @@
       <c r="M14" s="7"/>
       <c r="O14" s="9"/>
       <c r="P14" s="14"/>
-      <c r="Q14" s="7"/>
+      <c r="Q14" s="14"/>
       <c r="R14" s="7"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="7"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="7"/>
+    </row>
+    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>110</v>
       </c>
@@ -6334,12 +6521,13 @@
       <c r="M15" s="7"/>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
-      <c r="Q15" s="7"/>
+      <c r="Q15" s="14"/>
       <c r="R15" s="7"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="7"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>111</v>
       </c>
@@ -6373,12 +6561,13 @@
       <c r="M16" s="7"/>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="7"/>
+      <c r="Q16" s="14"/>
       <c r="R16" s="7"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="7"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="7"/>
+    </row>
+    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>112</v>
       </c>
@@ -6414,12 +6603,13 @@
       <c r="M17" s="7"/>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
-      <c r="Q17" s="7"/>
+      <c r="Q17" s="14"/>
       <c r="R17" s="7"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="18" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S17" s="7"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="7"/>
+    </row>
+    <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>113</v>
       </c>
@@ -6448,7 +6638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>114</v>
       </c>
@@ -6477,7 +6667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>115</v>
       </c>
@@ -6504,7 +6694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>116</v>
       </c>
@@ -6533,7 +6723,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>117</v>
       </c>
@@ -6562,7 +6752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>118</v>
       </c>
@@ -6591,7 +6781,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>119</v>
       </c>
@@ -6618,7 +6808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>120</v>
       </c>
@@ -6647,7 +6837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>121</v>
       </c>
@@ -6674,7 +6864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>122</v>
       </c>
@@ -6703,7 +6893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>123</v>
       </c>
@@ -6732,7 +6922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>124</v>
       </c>
@@ -6759,7 +6949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>125</v>
       </c>
@@ -6786,7 +6976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>126</v>
       </c>
@@ -6815,7 +7005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>127</v>
       </c>
@@ -6982,12 +7172,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6997,11 +7188,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:V111"/>
+  <sheetPr codeName="Sheet7">
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:AD111"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7017,19 +7210,20 @@
     <col min="12" max="12" width="14.42578125" style="6" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" style="6" customWidth="1"/>
     <col min="14" max="14" width="6.28515625" style="6" customWidth="1"/>
-    <col min="15" max="16" width="18.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
-    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="6"/>
+    <col min="15" max="17" width="18.7109375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="6" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" style="6" customWidth="1"/>
+    <col min="23" max="24" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="4.85546875" style="6" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" style="6" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="6" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>21</v>
       </c>
@@ -7055,12 +7249,17 @@
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
-      <c r="T1" s="28" t="s">
+      <c r="S1" s="29"/>
+      <c r="U1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="29"/>
-    </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V1" s="29"/>
+      <c r="AC1" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD1" s="29"/>
+    </row>
+    <row r="2" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>97</v>
       </c>
@@ -7103,19 +7302,28 @@
         <v>93</v>
       </c>
       <c r="Q2" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>98</v>
       </c>
@@ -7155,21 +7363,28 @@
         <v>86</v>
       </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="R3" s="7"/>
-      <c r="T3" s="9" t="s">
+      <c r="Q3" s="14"/>
+      <c r="R3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="S3" s="7"/>
+      <c r="U3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="W3" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC3" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>99</v>
       </c>
@@ -7209,21 +7424,28 @@
         <v>37</v>
       </c>
       <c r="P4" s="14"/>
-      <c r="Q4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="R4" s="7"/>
-      <c r="T4" s="9" t="s">
+      <c r="Q4" s="14"/>
+      <c r="R4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="U4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>100</v>
       </c>
@@ -7261,12 +7483,15 @@
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="14"/>
       <c r="R5" s="7"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="7"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="7"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="7"/>
+    </row>
+    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>101</v>
       </c>
@@ -7304,12 +7529,13 @@
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="7"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="7"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="7"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>102</v>
       </c>
@@ -7345,12 +7571,13 @@
       <c r="M7" s="7"/>
       <c r="O7" s="9"/>
       <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
+      <c r="Q7" s="14"/>
       <c r="R7" s="7"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="7"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="7"/>
+    </row>
+    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>103</v>
       </c>
@@ -7386,12 +7613,13 @@
       <c r="M8" s="7"/>
       <c r="O8" s="9"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="14"/>
       <c r="R8" s="7"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="7"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>104</v>
       </c>
@@ -7427,12 +7655,13 @@
       <c r="M9" s="7"/>
       <c r="O9" s="9"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="14"/>
       <c r="R9" s="7"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="7"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>105</v>
       </c>
@@ -7468,12 +7697,13 @@
       <c r="M10" s="7"/>
       <c r="O10" s="9"/>
       <c r="P10" s="14"/>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="14"/>
       <c r="R10" s="7"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="7"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>106</v>
       </c>
@@ -7509,12 +7739,13 @@
       <c r="M11" s="7"/>
       <c r="O11" s="9"/>
       <c r="P11" s="14"/>
-      <c r="Q11" s="7"/>
+      <c r="Q11" s="14"/>
       <c r="R11" s="7"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="7"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>107</v>
       </c>
@@ -7548,12 +7779,13 @@
       <c r="M12" s="7"/>
       <c r="O12" s="9"/>
       <c r="P12" s="14"/>
-      <c r="Q12" s="7"/>
+      <c r="Q12" s="14"/>
       <c r="R12" s="7"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="7"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>108</v>
       </c>
@@ -7587,12 +7819,13 @@
       <c r="M13" s="7"/>
       <c r="O13" s="9"/>
       <c r="P13" s="14"/>
-      <c r="Q13" s="7"/>
+      <c r="Q13" s="14"/>
       <c r="R13" s="7"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="7"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="7"/>
+    </row>
+    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>109</v>
       </c>
@@ -7626,12 +7859,13 @@
       <c r="M14" s="7"/>
       <c r="O14" s="9"/>
       <c r="P14" s="14"/>
-      <c r="Q14" s="7"/>
+      <c r="Q14" s="14"/>
       <c r="R14" s="7"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="7"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="7"/>
+    </row>
+    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>110</v>
       </c>
@@ -7667,12 +7901,13 @@
       <c r="M15" s="7"/>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
-      <c r="Q15" s="7"/>
+      <c r="Q15" s="14"/>
       <c r="R15" s="7"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="7"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>111</v>
       </c>
@@ -7706,12 +7941,13 @@
       <c r="M16" s="7"/>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="7"/>
+      <c r="Q16" s="14"/>
       <c r="R16" s="7"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="7"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="7"/>
+    </row>
+    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>112</v>
       </c>
@@ -7747,12 +7983,13 @@
       <c r="M17" s="7"/>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
-      <c r="Q17" s="7"/>
+      <c r="Q17" s="14"/>
       <c r="R17" s="7"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="18" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S17" s="7"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="7"/>
+    </row>
+    <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>113</v>
       </c>
@@ -7781,7 +8018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>114</v>
       </c>
@@ -7810,7 +8047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>115</v>
       </c>
@@ -7837,7 +8074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>116</v>
       </c>
@@ -7866,7 +8103,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>117</v>
       </c>
@@ -7895,7 +8132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>118</v>
       </c>
@@ -7924,7 +8161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>119</v>
       </c>
@@ -7951,7 +8188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>120</v>
       </c>
@@ -7980,7 +8217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>121</v>
       </c>
@@ -8007,7 +8244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>122</v>
       </c>
@@ -8036,7 +8273,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>123</v>
       </c>
@@ -8065,7 +8302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>124</v>
       </c>
@@ -8092,7 +8329,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>125</v>
       </c>
@@ -8119,7 +8356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>126</v>
       </c>
@@ -8148,7 +8385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>127</v>
       </c>
@@ -8323,12 +8560,13 @@
     <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8337,11 +8575,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:V111"/>
+  <sheetPr codeName="Sheet8">
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:W111"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L16:L17"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8359,19 +8599,19 @@
     <col min="12" max="12" width="26.28515625" style="6" customWidth="1"/>
     <col min="13" max="13" width="24.140625" style="6" customWidth="1"/>
     <col min="14" max="14" width="6.28515625" style="6" customWidth="1"/>
-    <col min="15" max="16" width="18.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
-    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="6"/>
+    <col min="15" max="17" width="18.7109375" style="6" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" style="6" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="6" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" style="6" customWidth="1"/>
+    <col min="23" max="24" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="4.85546875" style="6" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" style="6" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
@@ -8395,12 +8635,13 @@
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
-      <c r="T1" s="28" t="s">
+      <c r="S1" s="29"/>
+      <c r="U1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="29"/>
-    </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V1" s="29"/>
+    </row>
+    <row r="2" spans="1:23" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -8437,19 +8678,22 @@
         <v>93</v>
       </c>
       <c r="Q2" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -8485,23 +8729,24 @@
       <c r="P3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="Q3" s="14"/>
       <c r="R3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="U3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="W3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -8537,23 +8782,24 @@
       <c r="P4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="Q4" s="14"/>
       <c r="R4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="U4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="W4" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="23"/>
       <c r="E5" s="2"/>
@@ -8577,16 +8823,17 @@
       <c r="P5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="Q5" s="14"/>
       <c r="R5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U5" s="9"/>
+      <c r="V5" s="7"/>
+    </row>
+    <row r="6" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="23"/>
       <c r="E6" s="2"/>
@@ -8610,16 +8857,17 @@
       <c r="P6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="Q6" s="14"/>
       <c r="R6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U6" s="9"/>
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="23"/>
       <c r="E7" s="2"/>
@@ -8639,12 +8887,13 @@
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="14"/>
-      <c r="Q7" s="7"/>
+      <c r="Q7" s="14"/>
       <c r="R7" s="7"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="7"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="7"/>
+    </row>
+    <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="23"/>
       <c r="E8" s="2"/>
@@ -8662,12 +8911,13 @@
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="14"/>
       <c r="R8" s="7"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="7"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="23"/>
       <c r="E9" s="3"/>
@@ -8685,12 +8935,13 @@
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="14"/>
       <c r="R9" s="7"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="7"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="23"/>
       <c r="E10" s="2"/>
@@ -8706,12 +8957,13 @@
       <c r="M10" s="7"/>
       <c r="O10" s="9"/>
       <c r="P10" s="14"/>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="14"/>
       <c r="R10" s="7"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="7"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="23"/>
       <c r="E11" s="2"/>
@@ -8727,12 +8979,13 @@
       <c r="M11" s="7"/>
       <c r="O11" s="9"/>
       <c r="P11" s="14"/>
-      <c r="Q11" s="7"/>
+      <c r="Q11" s="14"/>
       <c r="R11" s="7"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="7"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="23"/>
       <c r="E12" s="2"/>
@@ -8748,12 +9001,13 @@
       <c r="M12" s="7"/>
       <c r="O12" s="9"/>
       <c r="P12" s="14"/>
-      <c r="Q12" s="7"/>
+      <c r="Q12" s="14"/>
       <c r="R12" s="7"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="7"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="23"/>
       <c r="E13" s="2"/>
@@ -8769,12 +9023,13 @@
       <c r="M13" s="7"/>
       <c r="O13" s="9"/>
       <c r="P13" s="14"/>
-      <c r="Q13" s="7"/>
+      <c r="Q13" s="14"/>
       <c r="R13" s="7"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="7"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="7"/>
+    </row>
+    <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="23"/>
       <c r="E14" s="2"/>
@@ -8790,12 +9045,13 @@
       <c r="M14" s="7"/>
       <c r="O14" s="9"/>
       <c r="P14" s="14"/>
-      <c r="Q14" s="7"/>
+      <c r="Q14" s="14"/>
       <c r="R14" s="7"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="7"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="7"/>
+    </row>
+    <row r="15" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="23"/>
       <c r="E15" s="2"/>
@@ -8811,12 +9067,13 @@
       <c r="M15" s="7"/>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
-      <c r="Q15" s="7"/>
+      <c r="Q15" s="14"/>
       <c r="R15" s="7"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="7"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="16" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="23"/>
       <c r="E16" s="2"/>
@@ -8832,12 +9089,13 @@
       <c r="M16" s="7"/>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="7"/>
+      <c r="Q16" s="14"/>
       <c r="R16" s="7"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="7"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="7"/>
+    </row>
+    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="23"/>
       <c r="E17" s="4"/>
@@ -8853,26 +9111,26 @@
       <c r="M17" s="7"/>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
-      <c r="Q17" s="7"/>
+      <c r="Q17" s="14"/>
       <c r="R17" s="7"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="S17" s="7"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="7"/>
+    </row>
+    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="U1:V1"/>
     <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8882,11 +9140,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:U111"/>
+  <sheetPr codeName="Sheet10">
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8903,19 +9163,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
-    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>21</v>
       </c>
@@ -8940,12 +9200,13 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>197</v>
       </c>
@@ -8985,19 +9246,22 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -9038,23 +9302,24 @@
       <c r="O3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="P3" s="14"/>
       <c r="Q3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
@@ -9095,23 +9360,24 @@
       <c r="O4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="P4" s="14"/>
       <c r="Q4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -9144,16 +9410,17 @@
       <c r="O5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="P5" s="14"/>
       <c r="Q5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -9179,19 +9446,18 @@
       <c r="N6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="O6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="24"/>
       <c r="C7" s="9"/>
@@ -9212,12 +9478,13 @@
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+      <c r="P7" s="14"/>
       <c r="Q7" s="7"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R7" s="7"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="24"/>
       <c r="C8" s="9"/>
@@ -9238,12 +9505,13 @@
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="7"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="7"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="24"/>
       <c r="C9" s="9"/>
@@ -9262,12 +9530,13 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="7"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="24"/>
       <c r="C10" s="9"/>
@@ -9284,12 +9553,13 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+      <c r="P10" s="14"/>
       <c r="Q10" s="7"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R10" s="7"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="24"/>
       <c r="C11" s="9"/>
@@ -9306,12 +9576,13 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="7"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R11" s="7"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="24"/>
       <c r="C12" s="9"/>
@@ -9328,12 +9599,13 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="7"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="7"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="7"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="24"/>
       <c r="C13" s="9"/>
@@ -9350,12 +9622,13 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="7"/>
+      <c r="P13" s="14"/>
       <c r="Q13" s="7"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="7"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="24"/>
       <c r="C14" s="9"/>
@@ -9372,12 +9645,13 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="7"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="7"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="24"/>
       <c r="C15" s="9"/>
@@ -9394,12 +9668,13 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="7"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="7"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="7"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="24"/>
       <c r="C16" s="9"/>
@@ -9416,12 +9691,13 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="7"/>
+      <c r="P16" s="14"/>
       <c r="Q16" s="7"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="7"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="24"/>
       <c r="C17" s="9"/>
@@ -9438,12 +9714,13 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="7"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="7"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="R17" s="7"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9455,8 +9732,8 @@
   <mergeCells count="5">
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dcomtestcasegeneration/Database/Database_template.xlsx
+++ b/dcomtestcasegeneration/Database/Database_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nuc81hc\Documents\MyTasks\TOOL\BGSV_EDA2_Automation_Tool_LOCALREPO\dcomtestcasegeneration\DCOMTestcaseGenerationR1.1\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB8225A-8655-4494-B5F5-6DFB8F1283E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00475CFD-FB39-4739-99B2-343E323372B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26610" yWindow="1425" windowWidth="25125" windowHeight="13185" tabRatio="903" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="903" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common_settings" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="224">
   <si>
     <t>7F</t>
   </si>
@@ -663,13 +663,61 @@
     <t>// Stop DTC Setting</t>
   </si>
   <si>
-    <t>Physical</t>
-  </si>
-  <si>
-    <t>SID Support</t>
-  </si>
-  <si>
-    <t>Name</t>
+    <t>Allow Session</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>0140</t>
+  </si>
+  <si>
+    <t>Transportation mode</t>
+  </si>
+  <si>
+    <t>F102</t>
+  </si>
+  <si>
+    <t>MTOC</t>
+  </si>
+  <si>
+    <t>3131313131313131313131313131313131</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>0308</t>
+  </si>
+  <si>
+    <t>Distance between target and vehicle</t>
+  </si>
+  <si>
+    <t>ffff</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>Variant Coding</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>function configuration</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>Manufactory mode</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>invalid</t>
   </si>
 </sst>
 </file>
@@ -819,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -911,9 +959,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1195,13 +1240,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1">
-    <tabColor theme="5" tint="0.39997558519241921"/>
-  </sheetPr>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+      <selection activeCell="D40" sqref="D40:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1558,13 +1601,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr codeName="Sheet11">
-    <tabColor theme="5" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:V111"/>
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:U111"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1581,19 +1622,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
-    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
+    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
@@ -1616,13 +1657,12 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="R1" s="32"/>
-      <c r="T1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="29"/>
-    </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T1" s="29"/>
+    </row>
+    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -1656,22 +1696,19 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -1702,22 +1739,21 @@
         <v>86</v>
       </c>
       <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="R3" s="7"/>
-      <c r="T3" s="9" t="s">
+      <c r="P3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="S3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="6" t="s">
+      <c r="T3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="E4" s="2"/>
@@ -1744,22 +1780,21 @@
         <v>37</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="R4" s="7"/>
-      <c r="T4" s="9" t="s">
+      <c r="P4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="S4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V4" s="6" t="s">
+      <c r="T4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="E5" s="2"/>
@@ -1776,13 +1811,12 @@
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
+      <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="9"/>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
@@ -1797,13 +1831,12 @@
       <c r="L6" s="7"/>
       <c r="N6" s="9"/>
       <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="9"/>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
@@ -1818,13 +1851,12 @@
       <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="9"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="E8" s="2"/>
@@ -1839,13 +1871,12 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="9"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="E9" s="3"/>
@@ -1860,13 +1891,12 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="9"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="E10" s="2"/>
@@ -1881,13 +1911,12 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="9"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="E11" s="2"/>
@@ -1902,13 +1931,12 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="9"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="E12" s="2"/>
@@ -1923,13 +1951,12 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="9"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="E13" s="2"/>
@@ -1944,13 +1971,12 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="9"/>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="E14" s="2"/>
@@ -1965,13 +1991,12 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="9"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="E15" s="2"/>
@@ -1986,13 +2011,12 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="9"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="E16" s="2"/>
@@ -2007,13 +2031,12 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="9"/>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="E17" s="4"/>
@@ -2028,27 +2051,27 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
+      <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2057,13 +2080,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr codeName="Sheet12">
-    <tabColor theme="5" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:V111"/>
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2080,19 +2101,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
-    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
+    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
@@ -2115,13 +2136,12 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="R1" s="32"/>
-      <c r="T1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="29"/>
-    </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T1" s="29"/>
+    </row>
+    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -2155,22 +2175,19 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -2206,24 +2223,23 @@
       <c r="O3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="14"/>
+      <c r="P3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="Q3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="6" t="s">
+      <c r="T3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -2259,24 +2275,23 @@
       <c r="O4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="14"/>
+      <c r="P4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="Q4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V4" s="6" t="s">
+      <c r="T4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="E5" s="2"/>
@@ -2297,17 +2312,16 @@
       <c r="O5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="14"/>
+      <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="9"/>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
@@ -2325,18 +2339,19 @@
       <c r="N6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="O6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="9"/>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
@@ -2353,13 +2368,12 @@
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="9"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="E8" s="2"/>
@@ -2374,13 +2388,12 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="9"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="E9" s="3"/>
@@ -2395,13 +2408,12 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="9"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="E10" s="2"/>
@@ -2416,13 +2428,12 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="9"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="E11" s="2"/>
@@ -2437,13 +2448,12 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="9"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="E12" s="2"/>
@@ -2458,13 +2468,12 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="9"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="E13" s="2"/>
@@ -2479,13 +2488,12 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="9"/>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="E14" s="2"/>
@@ -2500,13 +2508,12 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="9"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="E15" s="2"/>
@@ -2521,13 +2528,12 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="9"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="E16" s="2"/>
@@ -2542,13 +2548,12 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="9"/>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="E17" s="4"/>
@@ -2563,27 +2568,27 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
+      <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2592,13 +2597,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr codeName="Sheet13">
-    <tabColor theme="5" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:V111"/>
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2615,19 +2618,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
-    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
+    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
@@ -2650,13 +2653,12 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="T1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="29"/>
-    </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T1" s="29"/>
+    </row>
+    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -2690,22 +2692,19 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -2741,24 +2740,23 @@
       <c r="O3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="14"/>
+      <c r="P3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="Q3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="6" t="s">
+      <c r="T3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -2794,24 +2792,23 @@
       <c r="O4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="14"/>
+      <c r="P4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="Q4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V4" s="6" t="s">
+      <c r="T4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="E5" s="2"/>
@@ -2832,17 +2829,16 @@
       <c r="O5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="14"/>
+      <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="9"/>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
@@ -2863,17 +2859,16 @@
       <c r="O6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="14"/>
+      <c r="P6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="9"/>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
@@ -2890,13 +2885,12 @@
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="9"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="E8" s="2"/>
@@ -2911,13 +2905,12 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="9"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="E9" s="3"/>
@@ -2932,13 +2925,12 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="9"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="E10" s="2"/>
@@ -2953,13 +2945,12 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="9"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="E11" s="2"/>
@@ -2974,13 +2965,12 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="9"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="E12" s="2"/>
@@ -2995,13 +2985,12 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="9"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="E13" s="2"/>
@@ -3016,13 +3005,12 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="9"/>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="E14" s="2"/>
@@ -3037,13 +3025,12 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="9"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="E15" s="2"/>
@@ -3058,13 +3045,12 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="9"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="E16" s="2"/>
@@ -3079,13 +3065,12 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="9"/>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="E17" s="4"/>
@@ -3100,27 +3085,27 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
+      <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3129,13 +3114,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr codeName="Sheet9">
-    <tabColor theme="5" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:V111"/>
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3152,19 +3135,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
-    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
+    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
@@ -3187,13 +3170,12 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="T1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="29"/>
-    </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T1" s="29"/>
+    </row>
+    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -3227,22 +3209,19 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -3278,24 +3257,23 @@
       <c r="O3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="14"/>
+      <c r="P3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="Q3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="6" t="s">
+      <c r="T3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -3331,24 +3309,23 @@
       <c r="O4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="14"/>
+      <c r="P4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="Q4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V4" s="6" t="s">
+      <c r="T4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="E5" s="2"/>
@@ -3369,17 +3346,16 @@
       <c r="O5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="14"/>
+      <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="9"/>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
@@ -3397,18 +3373,19 @@
       <c r="N6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="O6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="9"/>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
@@ -3425,13 +3402,12 @@
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="9"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="E8" s="2"/>
@@ -3446,13 +3422,12 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="9"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="E9" s="3"/>
@@ -3467,13 +3442,12 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="9"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="E10" s="2"/>
@@ -3488,13 +3462,12 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="9"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="E11" s="2"/>
@@ -3509,13 +3482,12 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="9"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="E12" s="2"/>
@@ -3530,13 +3502,12 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="9"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="E13" s="2"/>
@@ -3551,13 +3522,12 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="9"/>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="E14" s="2"/>
@@ -3572,13 +3542,12 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="9"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="E15" s="2"/>
@@ -3593,13 +3562,12 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="9"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="E16" s="2"/>
@@ -3614,13 +3582,12 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="9"/>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="E17" s="4"/>
@@ -3635,13 +3602,12 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
+      <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3654,8 +3620,8 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3664,13 +3630,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2">
-    <tabColor theme="5" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:V17"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3687,19 +3651,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
-    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
+    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
@@ -3722,13 +3686,12 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="T1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="29"/>
-    </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T1" s="29"/>
+    </row>
+    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -3762,22 +3725,19 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -3810,24 +3770,23 @@
       <c r="O3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="14"/>
+      <c r="P3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="Q3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V3" s="6" t="s">
+      <c r="T3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -3860,24 +3819,23 @@
       <c r="O4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="14"/>
+      <c r="P4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="Q4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V4" s="6" t="s">
+      <c r="T4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -3910,17 +3868,16 @@
       <c r="O5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="14"/>
+      <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="9"/>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
@@ -3946,18 +3903,19 @@
       <c r="N6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="O6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="9"/>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
@@ -3982,13 +3940,12 @@
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="9"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="E8" s="2"/>
@@ -4005,13 +3962,12 @@
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="9"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="E9" s="3"/>
@@ -4028,13 +3984,12 @@
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="9"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="E10" s="2"/>
@@ -4051,13 +4006,12 @@
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="9"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="E11" s="2"/>
@@ -4074,13 +4028,12 @@
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="9"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="E12" s="2"/>
@@ -4097,13 +4050,12 @@
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="9"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="E13" s="2"/>
@@ -4120,13 +4072,12 @@
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="9"/>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="E14" s="2"/>
@@ -4143,13 +4094,12 @@
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="9"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="E15" s="2"/>
@@ -4166,13 +4116,12 @@
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="9"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="E16" s="2"/>
@@ -4187,13 +4136,12 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="9"/>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="E17" s="4"/>
@@ -4208,19 +4156,18 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
+      <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="7"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4230,13 +4177,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3">
-    <tabColor theme="5" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:V111"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4253,19 +4198,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
-    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
+    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
@@ -4288,13 +4233,12 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="T1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="29"/>
-    </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T1" s="29"/>
+    </row>
+    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -4328,22 +4272,19 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -4376,24 +4317,23 @@
       <c r="O3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="14"/>
+      <c r="P3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="Q3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="6" t="s">
+      <c r="T3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -4426,24 +4366,23 @@
       <c r="O4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="14"/>
+      <c r="P4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="Q4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V4" s="6" t="s">
+      <c r="T4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
@@ -4468,17 +4407,16 @@
       <c r="O5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="14"/>
+      <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="9"/>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="7"/>
       <c r="E6" s="2"/>
@@ -4496,18 +4434,19 @@
       <c r="N6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="O6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="9"/>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="7"/>
       <c r="E7" s="2"/>
@@ -4522,13 +4461,12 @@
       <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="9"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="E8" s="2"/>
@@ -4543,13 +4481,12 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="9"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="E9" s="3"/>
@@ -4564,13 +4501,12 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="9"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="E10" s="2"/>
@@ -4585,13 +4521,12 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="9"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="E11" s="2"/>
@@ -4606,13 +4541,12 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="9"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="E12" s="2"/>
@@ -4627,13 +4561,12 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="9"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="E13" s="2"/>
@@ -4648,13 +4581,12 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="9"/>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="E14" s="2"/>
@@ -4669,13 +4601,12 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="9"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="E15" s="2"/>
@@ -4690,13 +4621,12 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="9"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="E16" s="2"/>
@@ -4711,13 +4641,12 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="9"/>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="7"/>
       <c r="E17" s="4"/>
@@ -4732,27 +4661,27 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
+      <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4761,13 +4690,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4">
-    <tabColor theme="5" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:V111"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:U111"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4784,19 +4711,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
-    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
+    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
@@ -4819,13 +4746,12 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="T1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="29"/>
-    </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T1" s="29"/>
+    </row>
+    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -4859,22 +4785,19 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>41</v>
       </c>
@@ -4905,22 +4828,21 @@
         <v>86</v>
       </c>
       <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="R3" s="7"/>
-      <c r="T3" s="9" t="s">
+      <c r="P3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="S3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V3" s="6" t="s">
+      <c r="T3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="E4" s="2"/>
@@ -4947,22 +4869,21 @@
         <v>37</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="R4" s="7"/>
-      <c r="T4" s="9" t="s">
+      <c r="P4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="S4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V4" s="6" t="s">
+      <c r="T4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="E5" s="2"/>
@@ -4979,13 +4900,12 @@
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
+      <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="9"/>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="E6" s="2"/>
@@ -5000,13 +4920,12 @@
       <c r="L6" s="7"/>
       <c r="N6" s="9"/>
       <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="9"/>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="E7" s="2"/>
@@ -5021,13 +4940,12 @@
       <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="9"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="E8" s="2"/>
@@ -5042,13 +4960,12 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="9"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="E9" s="3"/>
@@ -5063,13 +4980,12 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="9"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="E10" s="2"/>
@@ -5084,13 +5000,12 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="9"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="E11" s="2"/>
@@ -5105,13 +5020,12 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="9"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="E12" s="2"/>
@@ -5126,13 +5040,12 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="9"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="E13" s="2"/>
@@ -5147,13 +5060,12 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="9"/>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="E14" s="2"/>
@@ -5168,13 +5080,12 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="9"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="E15" s="2"/>
@@ -5189,13 +5100,12 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="9"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="E16" s="2"/>
@@ -5210,13 +5120,12 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="9"/>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="E17" s="4"/>
@@ -5231,27 +5140,30 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
+      <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5260,13 +5172,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr codeName="Sheet5">
-    <tabColor theme="5" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:V111"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5281,19 +5191,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
-    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
+    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>21</v>
       </c>
@@ -5318,13 +5228,12 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="T1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="29"/>
-    </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T1" s="29"/>
+    </row>
+    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -5360,22 +5269,19 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -5408,22 +5314,21 @@
         <v>86</v>
       </c>
       <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="R3" s="7"/>
-      <c r="T3" s="9" t="s">
+      <c r="P3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="S3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="6" t="s">
+      <c r="T3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -5456,22 +5361,21 @@
         <v>37</v>
       </c>
       <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="R4" s="7"/>
-      <c r="T4" s="9" t="s">
+      <c r="P4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="S4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V4" s="6" t="s">
+      <c r="T4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>26</v>
       </c>
@@ -5494,13 +5398,12 @@
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
+      <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="9"/>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
@@ -5523,13 +5426,12 @@
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="9"/>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
@@ -5550,13 +5452,12 @@
       <c r="L7" s="7"/>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="9"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -5572,13 +5473,12 @@
       <c r="L8" s="7"/>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="9"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -5595,13 +5495,12 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="9"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -5618,13 +5517,12 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="9"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -5641,13 +5539,12 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="9"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -5664,13 +5561,12 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="9"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -5687,13 +5583,12 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="9"/>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -5710,13 +5605,12 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="9"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -5733,13 +5627,12 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="9"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -5756,13 +5649,12 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="9"/>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -5779,26 +5671,47 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
+      <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5808,13 +5721,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr codeName="Sheet6">
-    <tabColor theme="5" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:AD37"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
+    <sheetView topLeftCell="A10" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5830,20 +5741,19 @@
     <col min="12" max="12" width="14.42578125" style="6" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" style="6" customWidth="1"/>
     <col min="14" max="14" width="6.28515625" style="6" customWidth="1"/>
-    <col min="15" max="17" width="18.7109375" style="6" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" style="6" customWidth="1"/>
-    <col min="22" max="22" width="20.140625" style="6" customWidth="1"/>
-    <col min="23" max="24" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="4.85546875" style="6" customWidth="1"/>
-    <col min="28" max="28" width="8.7109375" style="6" customWidth="1"/>
-    <col min="29" max="29" width="17" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="6"/>
+    <col min="15" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>21</v>
       </c>
@@ -5869,17 +5779,12 @@
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="U1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="29"/>
-      <c r="AC1" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD1" s="29"/>
-    </row>
-    <row r="2" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>97</v>
       </c>
@@ -5922,28 +5827,19 @@
         <v>93</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="R2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>98</v>
       </c>
@@ -5983,28 +5879,21 @@
         <v>86</v>
       </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="S3" s="7"/>
-      <c r="U3" s="9" t="s">
+      <c r="Q3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="R3" s="7"/>
+      <c r="T3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="V3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" s="6" t="s">
+      <c r="U3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AC3" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>99</v>
       </c>
@@ -6044,28 +5933,21 @@
         <v>37</v>
       </c>
       <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="S4" s="7"/>
-      <c r="U4" s="9" t="s">
+      <c r="Q4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="T4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="V4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="W4" s="6" t="s">
+      <c r="U4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AC4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD4" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>100</v>
       </c>
@@ -6103,15 +5985,12 @@
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="7"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="7"/>
-    </row>
-    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>101</v>
       </c>
@@ -6149,13 +6028,12 @@
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="7"/>
-    </row>
-    <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>102</v>
       </c>
@@ -6191,13 +6069,12 @@
       <c r="M7" s="7"/>
       <c r="O7" s="9"/>
       <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
+      <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="7"/>
-    </row>
-    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>103</v>
       </c>
@@ -6233,13 +6110,12 @@
       <c r="M8" s="7"/>
       <c r="O8" s="9"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
+      <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="7"/>
-    </row>
-    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>104</v>
       </c>
@@ -6275,13 +6151,12 @@
       <c r="M9" s="7"/>
       <c r="O9" s="9"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
+      <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="7"/>
-    </row>
-    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>105</v>
       </c>
@@ -6317,13 +6192,12 @@
       <c r="M10" s="7"/>
       <c r="O10" s="9"/>
       <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
+      <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="7"/>
-    </row>
-    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>106</v>
       </c>
@@ -6359,13 +6233,12 @@
       <c r="M11" s="7"/>
       <c r="O11" s="9"/>
       <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
+      <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="7"/>
-    </row>
-    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>107</v>
       </c>
@@ -6399,13 +6272,12 @@
       <c r="M12" s="7"/>
       <c r="O12" s="9"/>
       <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
+      <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="7"/>
-    </row>
-    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>108</v>
       </c>
@@ -6439,13 +6311,12 @@
       <c r="M13" s="7"/>
       <c r="O13" s="9"/>
       <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
+      <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="7"/>
-    </row>
-    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>109</v>
       </c>
@@ -6479,13 +6350,12 @@
       <c r="M14" s="7"/>
       <c r="O14" s="9"/>
       <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
+      <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="7"/>
-    </row>
-    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>110</v>
       </c>
@@ -6521,13 +6391,12 @@
       <c r="M15" s="7"/>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
+      <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="7"/>
-    </row>
-    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>111</v>
       </c>
@@ -6561,13 +6430,12 @@
       <c r="M16" s="7"/>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
+      <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="7"/>
-    </row>
-    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>112</v>
       </c>
@@ -6603,13 +6471,12 @@
       <c r="M17" s="7"/>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
+      <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="7"/>
-    </row>
-    <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="18" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>113</v>
       </c>
@@ -6638,7 +6505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>114</v>
       </c>
@@ -6667,7 +6534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>115</v>
       </c>
@@ -6693,8 +6560,12 @@
       <c r="J20" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L20" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" s="29"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>116</v>
       </c>
@@ -6722,8 +6593,14 @@
       <c r="J21" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L21" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>117</v>
       </c>
@@ -6751,8 +6628,14 @@
       <c r="J22" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>118</v>
       </c>
@@ -6780,8 +6663,14 @@
       <c r="J23" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>119</v>
       </c>
@@ -6807,8 +6696,14 @@
       <c r="J24" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>120</v>
       </c>
@@ -6837,7 +6732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>121</v>
       </c>
@@ -6864,7 +6759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>122</v>
       </c>
@@ -6893,7 +6788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>123</v>
       </c>
@@ -6922,7 +6817,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>124</v>
       </c>
@@ -6949,7 +6844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>125</v>
       </c>
@@ -6976,7 +6871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>126</v>
       </c>
@@ -7005,7 +6900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>127</v>
       </c>
@@ -7173,12 +7068,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7188,29 +7083,28 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr codeName="Sheet7">
-    <tabColor theme="5" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:AD111"/>
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:W111"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48.140625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="14.28515625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="6" customWidth="1"/>
-    <col min="7" max="9" width="18.140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" style="6" customWidth="1"/>
-    <col min="15" max="17" width="18.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="17" customWidth="1"/>
+    <col min="3" max="4" width="17.42578125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="43.140625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="6" customWidth="1"/>
+    <col min="8" max="10" width="18.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" style="6" customWidth="1"/>
+    <col min="16" max="17" width="18.7109375" style="6" customWidth="1"/>
     <col min="18" max="18" width="14.28515625" style="6" customWidth="1"/>
     <col min="19" max="19" width="18.5703125" style="6" customWidth="1"/>
     <col min="20" max="20" width="10.7109375" style="6" customWidth="1"/>
@@ -7219,34 +7113,33 @@
     <col min="23" max="24" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="25" max="27" width="4.85546875" style="6" customWidth="1"/>
     <col min="28" max="28" width="8.7109375" style="6" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="6" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="6"/>
+    <col min="29" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="29"/>
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
       <c r="J1" s="29"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="28" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="O1" s="28" t="s">
+      <c r="N1" s="29"/>
+      <c r="P1" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
       <c r="S1" s="29"/>
@@ -7254,12 +7147,8 @@
         <v>87</v>
       </c>
       <c r="V1" s="29"/>
-      <c r="AC1" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD1" s="29"/>
-    </row>
-    <row r="2" spans="1:30" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:23" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>97</v>
       </c>
@@ -7272,37 +7161,37 @@
       <c r="D2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="13"/>
+      <c r="M2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="P2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q2" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="R2" s="10" t="s">
         <v>39</v>
@@ -7316,30 +7205,24 @@
       <c r="V2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
@@ -7352,17 +7235,19 @@
       <c r="J3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="K3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
       <c r="R3" s="7" t="s">
         <v>85</v>
@@ -7377,30 +7262,24 @@
       <c r="W3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AC3" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
@@ -7413,17 +7292,19 @@
       <c r="J4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="9" t="s">
+      <c r="K4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="7" t="s">
         <v>85</v>
@@ -7438,30 +7319,24 @@
       <c r="W4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AC4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD4" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
@@ -7474,40 +7349,40 @@
       <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="9" t="s">
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="N5" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="14"/>
+      <c r="P5" s="9"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="U5" s="9"/>
       <c r="V5" s="7"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="7"/>
-    </row>
-    <row r="6" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>101</v>
+        <v>209</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
@@ -7520,38 +7395,40 @@
       <c r="J6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="9" t="s">
+      <c r="K6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="14"/>
+      <c r="P6" s="9"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="U6" s="9"/>
       <c r="V6" s="7"/>
     </row>
-    <row r="7" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="7" t="s">
         <v>22</v>
       </c>
@@ -7564,36 +7441,38 @@
       <c r="J7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="9" t="s">
+      <c r="K7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="14"/>
+      <c r="N7" s="7"/>
+      <c r="P7" s="9"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="U7" s="9"/>
       <c r="V7" s="7"/>
     </row>
-    <row r="8" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>54</v>
+        <v>214</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="7" t="s">
         <v>22</v>
       </c>
@@ -7606,78 +7485,82 @@
       <c r="J8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="9" t="s">
+      <c r="K8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="14"/>
+      <c r="N8" s="7"/>
+      <c r="P8" s="9"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="U8" s="9"/>
       <c r="V8" s="7"/>
     </row>
-    <row r="9" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="14"/>
+      <c r="N9" s="7"/>
+      <c r="P9" s="9"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="U9" s="9"/>
       <c r="V9" s="7"/>
     </row>
-    <row r="10" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>56</v>
+        <v>219</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
@@ -7690,36 +7573,38 @@
       <c r="J10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="9" t="s">
+      <c r="K10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="14"/>
+      <c r="N10" s="7"/>
+      <c r="P10" s="9"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="U10" s="9"/>
       <c r="V10" s="7"/>
     </row>
-    <row r="11" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>57</v>
+        <v>221</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="7" t="s">
         <v>22</v>
       </c>
@@ -7732,34 +7617,38 @@
       <c r="J11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="9" t="s">
+      <c r="K11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="7"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="14"/>
+      <c r="N11" s="7"/>
+      <c r="P11" s="9"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="U11" s="9"/>
       <c r="V11" s="7"/>
     </row>
-    <row r="12" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>107</v>
+        <v>220</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="7" t="s">
         <v>22</v>
       </c>
@@ -7772,34 +7661,38 @@
       <c r="J12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="9" t="s">
+      <c r="K12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="14"/>
+      <c r="N12" s="7"/>
+      <c r="P12" s="9"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="U12" s="9"/>
       <c r="V12" s="7"/>
     </row>
-    <row r="13" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="7" t="s">
-        <v>22</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="7" t="s">
         <v>22</v>
       </c>
@@ -7807,140 +7700,92 @@
         <v>22</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="9" t="s">
+      <c r="K13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="14"/>
+      <c r="N13" s="7"/>
+      <c r="P13" s="9"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="U13" s="9"/>
       <c r="V13" s="7"/>
     </row>
-    <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="9" t="s">
+    <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="7"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="14"/>
+      <c r="N14" s="7"/>
+      <c r="P14" s="9"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="U14" s="9"/>
       <c r="V14" s="7"/>
     </row>
-    <row r="15" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="9" t="s">
+    <row r="15" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="7"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="14"/>
+      <c r="N15" s="7"/>
+      <c r="P15" s="9"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="U15" s="9"/>
       <c r="V15" s="7"/>
     </row>
-    <row r="16" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="9" t="s">
+    <row r="16" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="7"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="14"/>
+      <c r="N16" s="7"/>
+      <c r="P16" s="9"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -7948,41 +7793,23 @@
       <c r="V16" s="7"/>
     </row>
     <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="9" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="M17" s="7"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="14"/>
+      <c r="N17" s="7"/>
+      <c r="P17" s="9"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
@@ -7990,568 +7817,274 @@
       <c r="V17" s="7"/>
     </row>
     <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="18"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="18"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="F20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="18"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="18"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="M21" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="N21" s="29"/>
     </row>
     <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>22</v>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="18"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="M22" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="18"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="M23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="18"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="M24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="18"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="M25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="F26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="18"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
     </row>
     <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="18"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="18"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="F29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="18"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="F30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="18"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
     </row>
     <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="18"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
     </row>
     <row r="32" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="18"/>
-      <c r="F33" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="F34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="18"/>
-      <c r="F35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="18"/>
-      <c r="F36" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="18"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="18"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="18"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="18"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="18"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="18"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="40" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8561,13 +8094,14 @@
     <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AC1:AD1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:S1"/>
     <mergeCell ref="U1:V1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8575,13 +8109,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr codeName="Sheet8">
-    <tabColor theme="5" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:W111"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8599,19 +8131,19 @@
     <col min="12" max="12" width="26.28515625" style="6" customWidth="1"/>
     <col min="13" max="13" width="24.140625" style="6" customWidth="1"/>
     <col min="14" max="14" width="6.28515625" style="6" customWidth="1"/>
-    <col min="15" max="17" width="18.7109375" style="6" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.7109375" style="6" customWidth="1"/>
-    <col min="22" max="22" width="20.140625" style="6" customWidth="1"/>
-    <col min="23" max="24" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="4.85546875" style="6" customWidth="1"/>
-    <col min="28" max="28" width="8.7109375" style="6" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="6"/>
+    <col min="15" max="16" width="18.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
+    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
@@ -8635,13 +8167,12 @@
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="U1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="V1" s="29"/>
-    </row>
-    <row r="2" spans="1:23" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
@@ -8678,22 +8209,19 @@
         <v>93</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="R2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -8729,24 +8257,23 @@
       <c r="P3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="14"/>
+      <c r="Q3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="R3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="T3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="V3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="W3" s="6" t="s">
+      <c r="U3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -8782,24 +8309,23 @@
       <c r="P4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="14"/>
+      <c r="Q4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="R4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="T4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="V4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="W4" s="6" t="s">
+      <c r="U4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="23"/>
       <c r="E5" s="2"/>
@@ -8823,17 +8349,16 @@
       <c r="P5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="R5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="U5" s="9"/>
-      <c r="V5" s="7"/>
-    </row>
-    <row r="6" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T5" s="9"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="23"/>
       <c r="E6" s="2"/>
@@ -8857,17 +8382,16 @@
       <c r="P6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="R6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="U6" s="9"/>
-      <c r="V6" s="7"/>
-    </row>
-    <row r="7" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T6" s="9"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="23"/>
       <c r="E7" s="2"/>
@@ -8887,13 +8411,12 @@
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
+      <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="7"/>
-    </row>
-    <row r="8" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T7" s="9"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="23"/>
       <c r="E8" s="2"/>
@@ -8911,13 +8434,12 @@
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
+      <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="7"/>
-    </row>
-    <row r="9" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T8" s="9"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="23"/>
       <c r="E9" s="3"/>
@@ -8935,13 +8457,12 @@
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
+      <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="7"/>
-    </row>
-    <row r="10" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T9" s="9"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="23"/>
       <c r="E10" s="2"/>
@@ -8957,13 +8478,12 @@
       <c r="M10" s="7"/>
       <c r="O10" s="9"/>
       <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
+      <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="7"/>
-    </row>
-    <row r="11" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T10" s="9"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="23"/>
       <c r="E11" s="2"/>
@@ -8979,13 +8499,12 @@
       <c r="M11" s="7"/>
       <c r="O11" s="9"/>
       <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
+      <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="7"/>
-    </row>
-    <row r="12" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T11" s="9"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="23"/>
       <c r="E12" s="2"/>
@@ -9001,13 +8520,12 @@
       <c r="M12" s="7"/>
       <c r="O12" s="9"/>
       <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
+      <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="7"/>
-    </row>
-    <row r="13" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="23"/>
       <c r="E13" s="2"/>
@@ -9023,13 +8541,12 @@
       <c r="M13" s="7"/>
       <c r="O13" s="9"/>
       <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
+      <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="7"/>
-    </row>
-    <row r="14" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="23"/>
       <c r="E14" s="2"/>
@@ -9045,13 +8562,12 @@
       <c r="M14" s="7"/>
       <c r="O14" s="9"/>
       <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
+      <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="7"/>
-    </row>
-    <row r="15" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T14" s="9"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="23"/>
       <c r="E15" s="2"/>
@@ -9067,13 +8583,12 @@
       <c r="M15" s="7"/>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
+      <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="7"/>
-    </row>
-    <row r="16" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T15" s="9"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="23"/>
       <c r="E16" s="2"/>
@@ -9089,13 +8604,12 @@
       <c r="M16" s="7"/>
       <c r="O16" s="9"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
+      <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="7"/>
-    </row>
-    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T16" s="9"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="23"/>
       <c r="E17" s="4"/>
@@ -9111,26 +8625,26 @@
       <c r="M17" s="7"/>
       <c r="O17" s="9"/>
       <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
+      <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="7"/>
-    </row>
-    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9140,13 +8654,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr codeName="Sheet10">
-    <tabColor theme="5" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:V111"/>
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9163,19 +8675,19 @@
     <col min="11" max="11" width="14.42578125" style="6" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="16" width="18.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="6" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" style="6" customWidth="1"/>
-    <col min="22" max="23" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="6" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="15" width="18.7109375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="6" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="6" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="6" customWidth="1"/>
+    <col min="21" max="22" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.85546875" style="6" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" style="6" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>21</v>
       </c>
@@ -9200,13 +8712,12 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="T1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="29"/>
-    </row>
-    <row r="2" spans="1:22" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T1" s="29"/>
+    </row>
+    <row r="2" spans="1:21" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>197</v>
       </c>
@@ -9246,22 +8757,19 @@
         <v>93</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
@@ -9302,24 +8810,23 @@
       <c r="O3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="14"/>
+      <c r="P3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="Q3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="6" t="s">
+      <c r="T3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
@@ -9360,24 +8867,23 @@
       <c r="O4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="14"/>
+      <c r="P4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="Q4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="V4" s="6" t="s">
+      <c r="T4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -9410,17 +8916,16 @@
       <c r="O5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="14"/>
+      <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="9"/>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -9446,18 +8951,19 @@
       <c r="N6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="O6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="9"/>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="24"/>
       <c r="C7" s="9"/>
@@ -9478,13 +8984,12 @@
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="9"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="24"/>
       <c r="C8" s="9"/>
@@ -9505,13 +9010,12 @@
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="9"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="24"/>
       <c r="C9" s="9"/>
@@ -9530,13 +9034,12 @@
       <c r="L9" s="7"/>
       <c r="N9" s="9"/>
       <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="9"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="24"/>
       <c r="C10" s="9"/>
@@ -9553,13 +9056,12 @@
       <c r="L10" s="7"/>
       <c r="N10" s="9"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="9"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="24"/>
       <c r="C11" s="9"/>
@@ -9576,13 +9078,12 @@
       <c r="L11" s="7"/>
       <c r="N11" s="9"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="9"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="24"/>
       <c r="C12" s="9"/>
@@ -9599,13 +9100,12 @@
       <c r="L12" s="7"/>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="9"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="24"/>
       <c r="C13" s="9"/>
@@ -9622,13 +9122,12 @@
       <c r="L13" s="7"/>
       <c r="N13" s="9"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S13" s="9"/>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="24"/>
       <c r="C14" s="9"/>
@@ -9645,13 +9144,12 @@
       <c r="L14" s="7"/>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="9"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="24"/>
       <c r="C15" s="9"/>
@@ -9668,13 +9166,12 @@
       <c r="L15" s="7"/>
       <c r="N15" s="9"/>
       <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S15" s="9"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="24"/>
       <c r="C16" s="9"/>
@@ -9691,13 +9188,12 @@
       <c r="L16" s="7"/>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S16" s="9"/>
+      <c r="T16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="24"/>
       <c r="C17" s="9"/>
@@ -9714,13 +9210,12 @@
       <c r="L17" s="7"/>
       <c r="N17" s="9"/>
       <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
+      <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="21" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="21" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9732,8 +9227,8 @@
   <mergeCells count="5">
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
